--- a/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
+++ b/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\6_PTS_ATM_ChristianDimasSidauruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF5D9019-3EDE-472E-9FCF-15BCEE84A0FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF03C7-2C47-4263-9A84-04B4D1920B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
+    <workbookView xWindow="75" yWindow="1050" windowWidth="18000" windowHeight="9360" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="24">
   <si>
     <t>Rancangan Database ATM</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Pulsa</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>pw</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C794D5C-48E4-42A0-8BE8-EE487AE08D76}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,17 +490,17 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,8 +510,11 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -515,8 +524,11 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -526,8 +538,11 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -537,13 +552,16 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -565,7 +583,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -576,7 +594,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -587,12 +605,12 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>

--- a/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
+++ b/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\6_PTS_ATM_ChristianDimasSidauruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF03C7-2C47-4263-9A84-04B4D1920B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD289F23-8D24-4706-8D09-D26614E6AC0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1050" windowWidth="18000" windowHeight="9360" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Rancangan Database ATM</t>
   </si>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C794D5C-48E4-42A0-8BE8-EE487AE08D76}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,8 +620,11 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -631,8 +634,11 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -642,8 +648,11 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -653,13 +662,16 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -670,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -681,7 +693,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -692,7 +704,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -703,12 +715,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -719,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -730,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -741,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>

--- a/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
+++ b/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\6_PTS_ATM_ChristianDimasSidauruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD289F23-8D24-4706-8D09-D26614E6AC0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1771D2BA-8102-4E35-92A8-39EB04962817}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
+    <workbookView xWindow="75" yWindow="1050" windowWidth="18000" windowHeight="9360" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Rancangan Database ATM</t>
   </si>
@@ -98,10 +98,7 @@
     <t>Pulsa</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>pw</t>
+    <t>pin</t>
   </si>
 </sst>
 </file>
@@ -478,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C794D5C-48E4-42A0-8BE8-EE487AE08D76}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,8 +521,8 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
+      <c r="D5" s="1">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,8 +535,8 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
+      <c r="D6" s="1">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,8 +549,8 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
+      <c r="D7" s="1">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
+++ b/RancanganDatabase_ATM_ChristianDimasSidauruk.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\6_PTS_ATM_ChristianDimasSidauruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1771D2BA-8102-4E35-92A8-39EB04962817}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B8AACE-016D-4606-97CC-981342B5A992}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1050" windowWidth="18000" windowHeight="9360" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A96E84B5-6E0E-45C8-A9E6-BF6B19AB8FEF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Database" sheetId="1" r:id="rId1"/>
+    <sheet name="Relasi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Rancangan Database ATM</t>
   </si>
@@ -99,6 +100,30 @@
   </si>
   <si>
     <t>pin</t>
+  </si>
+  <si>
+    <t>Relasi</t>
+  </si>
+  <si>
+    <t>1:m</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Rekening</t>
+  </si>
+  <si>
+    <t>Transaksi</t>
+  </si>
+  <si>
+    <t>Pembayaran</t>
+  </si>
+  <si>
+    <t>PenarikanUang</t>
+  </si>
+  <si>
+    <t>m:1</t>
   </si>
 </sst>
 </file>
@@ -475,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C794D5C-48E4-42A0-8BE8-EE487AE08D76}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,4 +789,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96D4E55-541A-4227-A41C-1E338348814A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>